--- a/biology/Médecine/Gary_Alter/Gary_Alter.xlsx
+++ b/biology/Médecine/Gary_Alter/Gary_Alter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gary J. Alter est un chirurgien plastique américain, pratiquant à Beverly Hills, en Californie.
 </t>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses spécialités incluent la chirurgie de réassignation sexuelle[1], la chirurgie de reconstruction génitale et la chirurgie de féminisation faciale[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12]. Il est apparu dans deux épisodes de la série télé-réalité Dr 90210[13].  PRNewswire a rapporté le 5 juin 2015 que le Dr Gary J. Alter a réalisé la chirurgie plastique corporelle de Caitlyn Jenner[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spécialités incluent la chirurgie de réassignation sexuelle, la chirurgie de reconstruction génitale et la chirurgie de féminisation faciale. Il est apparu dans deux épisodes de la série télé-réalité Dr 90210.  PRNewswire a rapporté le 5 juin 2015 que le Dr Gary J. Alter a réalisé la chirurgie plastique corporelle de Caitlyn Jenner.
 Le Dr Gary Alter a été l'un des premiers médecins certifié par l'American Board of Plastic Surgery et l'American Board of Urology. Il est Professeur Adjoint de Clinique de Chirurgie Plastique à l'UCLA School of Medicine. Le Dr Alter a inventé de nombreuses procédures chirurgicales adoptées par d'autres chirurgiens plastiques dans le domaine de la reconstruction génitales, y compris la technique de l'« Alter Centrale-Cale labiaplasty »[citation nécessaire]. Le Dr Alter a été présent dans les programmes de E! Entertainment's, Dr 90210 et  Botched. Il a aussi été mis en lumière sur Alexis Arquette: She's My Brother (documentaire), et sur la TLC dans Strange Sex, discutant du syndrome du pénis caché. Il est apparu dans Discovery Health Network sur CNN, dans le Larry King Show, et il a été l'invité régulier dans « Red Eye » de la chaîne Fox News. Il a également été mis en vedette dans de nombreux médias dont le New York Times, le Los Angeles Times, le Wall Street Journal, USA Today, Allure, Self, Glamour, Marie Claire, Cosmopolitan, et Health. Le Dr Alter a publié dans de nombreuses revues médicales et manuels relatifs à sa spécialité, et a co-édité un livre.
 </t>
         </is>
@@ -543,14 +557,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« A new technique for correction of the hidden penis in adults and children », Gary J. Alter and Richard Ehrlich, Journal of Urology 161:455, 1999[15]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« A new technique for correction of the hidden penis in adults and children », Gary J. Alter and Richard Ehrlich, Journal of Urology 161:455, 1999
 « Penile enhancement surgery », Gary J. Alter, Techniques in Urology, 4:70, 1998
-« A new technique for aesthetic labia minora reduction », Gary J. Alter, Annals of Plastic Surgery 40:287, 1998[16]
-« Use of prefabricated tunica vaginalis fascia flap to reconstruct the tunica albuginea after recurrent penile prosthesis extrusion », GJ Alter, J Greisman, PE Werthman, AS Seid, BJ Joseph; Journal of Urology 159:128,1998[17]
-« Reconstruction of deformities resulting from penile enlargement surgery », Gary J. Alter; Journal of Urology 158:2153, 1997[18]
-RE: Complications of penile lengthening and augmentation seen at 1 referral center », Letter to the editor. Journal of Urology 156:1784, 1996[19]
+« A new technique for aesthetic labia minora reduction », Gary J. Alter, Annals of Plastic Surgery 40:287, 1998
+« Use of prefabricated tunica vaginalis fascia flap to reconstruct the tunica albuginea after recurrent penile prosthesis extrusion », GJ Alter, J Greisman, PE Werthman, AS Seid, BJ Joseph; Journal of Urology 159:128,1998
+« Reconstruction of deformities resulting from penile enlargement surgery », Gary J. Alter; Journal of Urology 158:2153, 1997
+RE: Complications of penile lengthening and augmentation seen at 1 referral center », Letter to the editor. Journal of Urology 156:1784, 1996
 « Penis enhancement », Gary J. Alter; Aesthetic Surgery Quarterly Vol 16:226, 1996
 « Penis enhancement », Gary J. Alter; Advances in Urology Vol 9, p. 225-254, 1996, Mosby, Chicago
 « Penis enhancement », Gary J. Alter; AUA Update Series, Lesson 12, Volume XV: p. 99-100, 1996, American Urological Association; Houston, Texas,
